--- a/ui-testsuite/src/main/resources/TestData/Order_Renewal_Reconciled_2.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Renewal_Reconciled_2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="172">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -531,6 +531,18 @@
   </si>
   <si>
     <t>1168454271</t>
+  </si>
+  <si>
+    <t>9665668010</t>
+  </si>
+  <si>
+    <t>16/08/2016</t>
+  </si>
+  <si>
+    <t>18/08/2016</t>
+  </si>
+  <si>
+    <t>31/08/2016</t>
   </si>
 </sst>
 </file>
@@ -541,7 +553,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +584,21 @@
       <sz val="8"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1432,10 +1459,10 @@
         <v>99</v>
       </c>
       <c r="S2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="U2" t="s">
         <v>76</v>
@@ -1510,7 +1537,7 @@
         <v>121</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AY2" t="s">
         <v>109</v>
@@ -1644,10 +1671,10 @@
         <v>133</v>
       </c>
       <c r="S3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="U3" t="s">
         <v>76</v>
@@ -1722,7 +1749,7 @@
         <v>136</v>
       </c>
       <c r="AX3" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AY3" t="s">
         <v>117</v>
@@ -1859,10 +1886,10 @@
         <v>133</v>
       </c>
       <c r="S4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="U4" t="s">
         <v>76</v>
@@ -1937,7 +1964,7 @@
         <v>136</v>
       </c>
       <c r="AX4" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AY4" t="s">
         <v>117</v>
